--- a/reports/resnet18_23_no_MMTM/prediction/0/probability_val_0.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/0/probability_val_0.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3853868842124939</v>
+        <v>0.3236909508705139</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6146130561828613</v>
+        <v>0.6763091087341309</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2149181216955185</v>
+        <v>0.2226459085941315</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7850818634033203</v>
+        <v>0.7773541212081909</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8076572418212891</v>
+        <v>0.81617271900177</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1923427730798721</v>
+        <v>0.18382728099823</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9600780606269836</v>
+        <v>0.9600002765655518</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03992192447185516</v>
+        <v>0.03999974578619003</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5127362012863159</v>
+        <v>0.4451882541179657</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4872637987136841</v>
+        <v>0.5548117160797119</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9442883729934692</v>
+        <v>0.9495600461959839</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05571164190769196</v>
+        <v>0.05043995380401611</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8381878137588501</v>
+        <v>0.8855681419372559</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1618121713399887</v>
+        <v>0.1144317984580994</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.875950813293457</v>
+        <v>0.8650200366973877</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1240492016077042</v>
+        <v>0.1349799931049347</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1422517746686935</v>
+        <v>0.1714727878570557</v>
       </c>
       <c r="C10" t="n">
-        <v>0.85774827003479</v>
+        <v>0.8285272121429443</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6115217208862305</v>
+        <v>0.5794789791107178</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3884782791137695</v>
+        <v>0.4205210208892822</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2556177377700806</v>
+        <v>0.2557827830314636</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7443822622299194</v>
+        <v>0.7442172169685364</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2255939543247223</v>
+        <v>0.1999762654304504</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7744060754776001</v>
+        <v>0.8000237941741943</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3480334877967834</v>
+        <v>0.3112500607967377</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6519665122032166</v>
+        <v>0.6887499094009399</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3111323714256287</v>
+        <v>0.2966128587722778</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6888676881790161</v>
+        <v>0.7033871412277222</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03945203870534897</v>
+        <v>0.04203460365533829</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9605479836463928</v>
+        <v>0.9579654335975647</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.5206534862518311</v>
+        <v>0.4521509408950806</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4793464839458466</v>
+        <v>0.5478490591049194</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1332372426986694</v>
+        <v>0.1520357877016068</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8667627573013306</v>
+        <v>0.8479642271995544</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.03333824872970581</v>
+        <v>0.0342707559466362</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9666617512702942</v>
+        <v>0.9657292366027832</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1989346444606781</v>
+        <v>0.1557788997888565</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8010653257369995</v>
+        <v>0.8442211151123047</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.103656992316246</v>
+        <v>0.1097311824560165</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8963429927825928</v>
+        <v>0.8902688026428223</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1142396628856659</v>
+        <v>0.1265619397163391</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8857603073120117</v>
+        <v>0.8734380602836609</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -793,10 +793,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.07785356789827347</v>
+        <v>0.09726793318986893</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9221464395523071</v>
+        <v>0.9027320742607117</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
